--- a/station/station-src/src/main/resources/base_template/设备维护记录导入模板.xlsx
+++ b/station/station-src/src/main/resources/base_template/设备维护记录导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA\station\src\main\resources\base_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA\trunk02\src\main\resources\base_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$7:$H$99998</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$7:$I$99998</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="117">
   <si>
     <t>设备维护记录表</t>
   </si>
@@ -404,6 +404,20 @@
   <si>
     <t>B00007024</t>
   </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="113" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为判断从机的数量</t>
+    <phoneticPr fontId="113" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池串联复用设备</t>
+  </si>
+  <si>
+    <t>蓄电池串联复用诊断组件</t>
+  </si>
 </sst>
 </file>
 
@@ -413,49 +427,49 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-#0&quot;.&quot;0000_-;\(#0&quot;.&quot;0000\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="0%;\(0%\)"/>
-    <numFmt numFmtId="182" formatCode="_-#,##0%_-;\(#,##0%\);_-\ &quot;-&quot;_-"/>
-    <numFmt numFmtId="183" formatCode="&quot;$&quot;\ #,##0.00_-;[Red]&quot;$&quot;\ #,##0.00\-"/>
-    <numFmt numFmtId="184" formatCode="0.000%"/>
-    <numFmt numFmtId="185" formatCode="#,##0.0"/>
-    <numFmt numFmtId="186" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="_-#,##0.00_-;\(#,##0.00\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="_-#0&quot;.&quot;0,_-;\(#0&quot;.&quot;0,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="190" formatCode="0.0%"/>
-    <numFmt numFmtId="191" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="192" formatCode="mmm/yyyy;_-\ &quot;N/A&quot;_-;_-\ &quot;-&quot;_-"/>
-    <numFmt numFmtId="193" formatCode="_-#,##0_-;\(#,##0\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="195" formatCode="_-#,###,_-;\(#,###,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="196" formatCode="#,##0\ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="197" formatCode="_-#,###.00,_-;\(#,###.00,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="198" formatCode="mmm/dd/yyyy;_-\ &quot;N/A&quot;_-;_-\ &quot;-&quot;_-"/>
-    <numFmt numFmtId="199" formatCode="_-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * #,##0\-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="200" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="201" formatCode="_-* #,##0.00\¥_-;\-* #,##0.00\¥_-;_-* &quot;-&quot;??\¥_-;_-@_-"/>
-    <numFmt numFmtId="202" formatCode="&quot;$&quot;#.#"/>
-    <numFmt numFmtId="203" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="204" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="205" formatCode="_-* #,##0\¥_-;\-* #,##0\¥_-;_-* &quot;-&quot;\¥_-;_-@_-"/>
-    <numFmt numFmtId="206" formatCode="#,##0\ &quot; &quot;;\(#,##0\)\ ;&quot;—&quot;&quot; &quot;&quot; &quot;&quot; &quot;&quot; &quot;"/>
-    <numFmt numFmtId="207" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="208" formatCode="#,##0.00\¥;[Red]\-#,##0.00\¥"/>
-    <numFmt numFmtId="209" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="210" formatCode="#,##0\ ;\-#,##0"/>
-    <numFmt numFmtId="211" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="212" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
-    <numFmt numFmtId="213" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="214" formatCode="0.0000%"/>
-    <numFmt numFmtId="215" formatCode="#,##0.00\¥;\-#,##0.00\¥"/>
-    <numFmt numFmtId="216" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="217" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="218" formatCode="yy\.mm\.dd"/>
-    <numFmt numFmtId="219" formatCode="0.000000_ ;[Red]\-0.000000\ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-#0&quot;.&quot;0000_-;\(#0&quot;.&quot;0000\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0%;\(0%\)"/>
+    <numFmt numFmtId="180" formatCode="_-#,##0%_-;\(#,##0%\);_-\ &quot;-&quot;_-"/>
+    <numFmt numFmtId="181" formatCode="&quot;$&quot;\ #,##0.00_-;[Red]&quot;$&quot;\ #,##0.00\-"/>
+    <numFmt numFmtId="182" formatCode="0.000%"/>
+    <numFmt numFmtId="183" formatCode="#,##0.0"/>
+    <numFmt numFmtId="184" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="_-#,##0.00_-;\(#,##0.00\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="_-#0&quot;.&quot;0,_-;\(#0&quot;.&quot;0,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="188" formatCode="0.0%"/>
+    <numFmt numFmtId="189" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="190" formatCode="mmm/yyyy;_-\ &quot;N/A&quot;_-;_-\ &quot;-&quot;_-"/>
+    <numFmt numFmtId="191" formatCode="_-#,##0_-;\(#,##0\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="192" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="193" formatCode="_-#,###,_-;\(#,###,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="194" formatCode="#,##0\ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="195" formatCode="_-#,###.00,_-;\(#,###.00,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="196" formatCode="mmm/dd/yyyy;_-\ &quot;N/A&quot;_-;_-\ &quot;-&quot;_-"/>
+    <numFmt numFmtId="197" formatCode="_-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * #,##0\-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="198" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="199" formatCode="_-* #,##0.00\¥_-;\-* #,##0.00\¥_-;_-* &quot;-&quot;??\¥_-;_-@_-"/>
+    <numFmt numFmtId="200" formatCode="&quot;$&quot;#.#"/>
+    <numFmt numFmtId="201" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="202" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="203" formatCode="_-* #,##0\¥_-;\-* #,##0\¥_-;_-* &quot;-&quot;\¥_-;_-@_-"/>
+    <numFmt numFmtId="204" formatCode="#,##0\ &quot; &quot;;\(#,##0\)\ ;&quot;—&quot;&quot; &quot;&quot; &quot;&quot; &quot;&quot; &quot;"/>
+    <numFmt numFmtId="205" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="206" formatCode="#,##0.00\¥;[Red]\-#,##0.00\¥"/>
+    <numFmt numFmtId="207" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="208" formatCode="#,##0\ ;\-#,##0"/>
+    <numFmt numFmtId="209" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="210" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
+    <numFmt numFmtId="211" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="212" formatCode="0.0000%"/>
+    <numFmt numFmtId="213" formatCode="#,##0.00\¥;\-#,##0.00\¥"/>
+    <numFmt numFmtId="214" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="215" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="216" formatCode="yy\.mm\.dd"/>
+    <numFmt numFmtId="217" formatCode="0.000000_ ;[Red]\-0.000000\ "/>
   </numFmts>
-  <fonts count="114">
+  <fonts count="116">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,6 +1193,23 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1664,7 +1695,7 @@
   </borders>
   <cellStyleXfs count="2064">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="196" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1696,7 +1727,7 @@
     <xf numFmtId="39" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
@@ -1715,7 +1746,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0">
@@ -1727,7 +1758,7 @@
     <xf numFmtId="176" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="204" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="202" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="47" fillId="0" borderId="14" applyProtection="0">
@@ -1755,10 +1786,10 @@
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1773,7 +1804,7 @@
     <xf numFmtId="176" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0">
@@ -1810,7 +1841,7 @@
     <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0"/>
     <xf numFmtId="176" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1860,7 +1891,7 @@
     <xf numFmtId="176" fontId="53" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1890,7 +1921,7 @@
     <xf numFmtId="176" fontId="35" fillId="13" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="191" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="58" fillId="22" borderId="4">
@@ -1900,7 +1931,7 @@
     <xf numFmtId="176" fontId="38" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="192" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,7 +1947,7 @@
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="51" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1925,7 +1956,7 @@
     <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0">
@@ -1950,7 +1981,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2027,7 +2058,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="204" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="202" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
@@ -2068,10 +2099,10 @@
     <xf numFmtId="176" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="194" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
@@ -2088,7 +2119,7 @@
     <xf numFmtId="176" fontId="38" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="194" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="30" fillId="0" borderId="0">
@@ -2121,7 +2152,7 @@
     <xf numFmtId="2" fontId="47" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="195" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2165,7 +2196,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="207" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="205" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="30" fillId="0" borderId="0">
@@ -2174,7 +2205,7 @@
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="193" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="65" fillId="0" borderId="6">
@@ -2184,7 +2215,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="192" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="190" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2251,7 +2282,7 @@
     <xf numFmtId="176" fontId="66" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0"/>
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
       <alignment vertical="center"/>
     </xf>
@@ -2276,10 +2307,10 @@
     <xf numFmtId="176" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="53" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2288,13 +2319,13 @@
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="67" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="67" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="30" fillId="0" borderId="0">
@@ -2315,7 +2346,7 @@
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="30" fillId="0" borderId="0">
@@ -2366,7 +2397,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2398,53 +2429,53 @@
     <xf numFmtId="176" fontId="35" fillId="13" borderId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="191" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="193" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="46" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="192" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="190" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2459,13 +2490,13 @@
     <xf numFmtId="176" fontId="38" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="69" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2475,7 +2506,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
@@ -2490,51 +2521,51 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="55" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0"/>
@@ -2590,7 +2621,7 @@
     <xf numFmtId="176" fontId="53" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="53" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2599,7 +2630,7 @@
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="53" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2608,7 +2639,7 @@
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="38" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2617,7 +2648,7 @@
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2629,7 +2660,7 @@
     <xf numFmtId="176" fontId="53" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2638,10 +2669,10 @@
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="202" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="188" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="43" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2653,13 +2684,13 @@
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2768,7 +2799,7 @@
     <xf numFmtId="176" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2783,7 +2814,7 @@
     <xf numFmtId="176" fontId="54" fillId="0" borderId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="70" fillId="0" borderId="0">
@@ -2792,7 +2823,7 @@
     <xf numFmtId="176" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0"/>
     <xf numFmtId="176" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2958,7 +2989,7 @@
     <xf numFmtId="176" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="205" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
@@ -2982,7 +3013,7 @@
     <xf numFmtId="176" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="65" fillId="0" borderId="6">
@@ -2991,7 +3022,7 @@
     <xf numFmtId="176" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="65" fillId="0" borderId="6">
@@ -3000,7 +3031,7 @@
     <xf numFmtId="176" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3012,13 +3043,13 @@
     <xf numFmtId="176" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3033,7 +3064,7 @@
     <xf numFmtId="176" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3063,7 +3094,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="205" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="72" fillId="0" borderId="0">
@@ -3078,7 +3109,7 @@
     <xf numFmtId="176" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="204" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="202" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3090,7 +3121,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="205" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="73" fillId="0" borderId="0">
@@ -3162,7 +3193,7 @@
     <xf numFmtId="176" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="189" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3180,13 +3211,13 @@
     <xf numFmtId="176" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0">
@@ -3212,37 +3243,37 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
@@ -3254,13 +3285,13 @@
     <xf numFmtId="176" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="35" fillId="9" borderId="6" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3290,7 +3321,7 @@
     <xf numFmtId="176" fontId="42" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="209" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="207" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="60" fillId="0" borderId="17">
@@ -3302,7 +3333,7 @@
     <xf numFmtId="176" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3311,31 +3342,31 @@
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="35" fillId="13" borderId="6">
@@ -3347,13 +3378,13 @@
     <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="214" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="212" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="214" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="212" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3389,25 +3420,25 @@
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="205" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="65" fillId="0" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="205" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="65" fillId="0" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="205" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="205" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0">
@@ -3416,13 +3447,13 @@
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="207" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="207" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="205" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="205" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="205" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3443,7 +3474,7 @@
     <xf numFmtId="176" fontId="61" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="183" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3452,7 +3483,7 @@
     <xf numFmtId="176" fontId="48" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="183" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
@@ -3470,7 +3501,7 @@
     <xf numFmtId="176" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
@@ -3521,25 +3552,25 @@
     <xf numFmtId="176" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="58" fillId="22" borderId="4">
@@ -3549,40 +3580,40 @@
     <xf numFmtId="176" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="204" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="202" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="76" fillId="22" borderId="4">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="204" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="202" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="58" fillId="22" borderId="4">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="204" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="202" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="76" fillId="22" borderId="4">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="204" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="204" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="204" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="204" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="204" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="202" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="65" fillId="0" borderId="6">
@@ -3618,7 +3649,7 @@
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="202" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="200" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
@@ -3676,7 +3707,7 @@
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="206" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="35" fillId="17" borderId="6">
@@ -3823,10 +3854,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="206" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="204" fontId="81" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="206" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="204" fontId="81" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="30" fillId="0" borderId="0">
@@ -4037,7 +4068,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="35" fillId="9" borderId="6" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4224,19 +4255,19 @@
     <xf numFmtId="10" fontId="35" fillId="9" borderId="6" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="67" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="67" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="35" fillId="9" borderId="6" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="84" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="35" fillId="9" borderId="6" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="67" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="67" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="35" fillId="9" borderId="6" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4246,35 +4277,35 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="216" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="84" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="35" fillId="9" borderId="6" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0"/>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0"/>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0"/>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0"/>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="26" borderId="0">
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -4322,7 +4353,7 @@
     <xf numFmtId="176" fontId="81" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0">
@@ -4343,31 +4374,31 @@
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0"/>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0"/>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0"/>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0">
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="215" fontId="10" fillId="20" borderId="0">
+    <xf numFmtId="213" fontId="10" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4379,14 +4410,14 @@
     <xf numFmtId="40" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="201" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="199" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="58" fillId="22" borderId="4">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="60" fillId="0" borderId="17">
@@ -4404,22 +4435,22 @@
     <xf numFmtId="176" fontId="86" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="213" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="205" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="211" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="203" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="32" fillId="0" borderId="0">
@@ -4494,10 +4525,10 @@
     <xf numFmtId="176" fontId="88" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4733,31 +4764,31 @@
     <xf numFmtId="176" fontId="35" fillId="13" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="84" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="216" fontId="67" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="216" fontId="67" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="84" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="214" fontId="67" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="214" fontId="67" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="84" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="67" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="67" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="33" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="84" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5001,22 +5032,22 @@
     <xf numFmtId="3" fontId="70" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="206" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="206" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="206" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="206" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="206" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="206" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5647,13 +5678,13 @@
     <xf numFmtId="176" fontId="90" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="100" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="100" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5675,7 +5706,7 @@
     <xf numFmtId="176" fontId="100" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="217" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="215" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="100" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6162,19 +6193,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
@@ -6374,7 +6405,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="218" fontId="30" fillId="0" borderId="21" applyFill="0" applyProtection="0">
+    <xf numFmtId="216" fontId="30" fillId="0" borderId="21" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
@@ -6669,7 +6700,7 @@
     <xf numFmtId="176" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7023,13 +7054,13 @@
     <xf numFmtId="176" fontId="52" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="210" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="212" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="211" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="208" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="210" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="209" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7041,8 +7072,8 @@
     <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7057,28 +7088,28 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7092,7 +7123,7 @@
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="198" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="92" fillId="0" borderId="0">
@@ -7161,7 +7192,7 @@
     <xf numFmtId="176" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="218" fontId="30" fillId="0" borderId="21" applyFill="0" applyProtection="0">
+    <xf numFmtId="216" fontId="30" fillId="0" borderId="21" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7251,7 +7282,7 @@
     <xf numFmtId="176" fontId="53" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="53" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -7641,7 +7672,7 @@
     <xf numFmtId="40" fontId="95" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="95" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7734,88 +7765,88 @@
     <xf numFmtId="176" fontId="23" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="217" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="30" fillId="0" borderId="6" applyNumberFormat="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7825,7 +7856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7845,10 +7876,10 @@
     <xf numFmtId="176" fontId="3" fillId="5" borderId="7" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="219" fontId="8" fillId="3" borderId="7" xfId="1056" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="219" fontId="8" fillId="3" borderId="6" xfId="1056" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="217" fontId="8" fillId="3" borderId="7" xfId="1056" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="217" fontId="8" fillId="3" borderId="6" xfId="1056" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7857,6 +7888,22 @@
     <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="114" fillId="3" borderId="4" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7872,13 +7919,7 @@
     <xf numFmtId="176" fontId="3" fillId="4" borderId="7" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="1601" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10004,7 +10045,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10039,7 +10080,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10248,146 +10289,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="14" width="10.875" customWidth="1"/>
-    <col min="15" max="31" width="8.75" customWidth="1"/>
-    <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="10.875" customWidth="1"/>
-    <col min="34" max="34" width="11" customWidth="1"/>
-    <col min="35" max="35" width="12.75" customWidth="1"/>
-    <col min="36" max="36" width="87.5" customWidth="1"/>
+    <col min="2" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="15" width="10.875" customWidth="1"/>
+    <col min="16" max="32" width="8.75" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="34" max="34" width="10.875" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
+    <col min="36" max="36" width="12.75" customWidth="1"/>
+    <col min="37" max="37" width="87.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="40.15" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:37" ht="40.15" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
     </row>
-    <row r="2" spans="1:36" ht="33" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="13"/>
+    <row r="2" spans="1:37" ht="33" customHeight="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="13"/>
     </row>
-    <row r="3" spans="1:36" ht="15.6" customHeight="1">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:37" ht="15.6" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
@@ -10457,117 +10498,121 @@
       <c r="AI3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AJ3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15.6" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20" t="s">
+    <row r="4" spans="1:37" ht="15.6" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="W4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AI4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AJ4" s="20" t="s">
+      <c r="AK4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.6" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="12" t="s">
-        <v>38</v>
-      </c>
+    <row r="5" spans="1:37" ht="15.6" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="12" t="s">
         <v>38</v>
       </c>
@@ -10637,276 +10682,288 @@
       <c r="AI5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AJ5" s="22"/>
+      <c r="AJ5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK5" s="20"/>
     </row>
-    <row r="6" spans="1:36" s="1" customFormat="1" ht="30.6" customHeight="1">
+    <row r="6" spans="1:37" s="1" customFormat="1" ht="30.6" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
+      <c r="C6" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37" ht="27">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="5">
         <v>80</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>43050.632893518501</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>13800001238</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="W7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="X7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="Y7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Z7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AB7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AC7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AD7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AE7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AF7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AG7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AH7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AI7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AI7" s="5" t="s">
+      <c r="AJ7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AJ7" s="5" t="s">
+      <c r="AK7" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37" ht="27">
       <c r="A8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="7">
         <v>60</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>43050.6405324074</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>18902223337</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="S8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="T8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="U8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="W8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="X8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="Y8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Z8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="AA8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AB8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AC8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AC8" s="7" t="s">
+      <c r="AD8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="7" t="s">
+      <c r="AE8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AF8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AF8" s="7" t="s">
+      <c r="AG8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AG8" s="7" t="s">
+      <c r="AH8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AH8" s="7" t="s">
+      <c r="AI8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AI8" s="7" t="s">
+      <c r="AJ8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AJ8" s="7" t="s">
+      <c r="AK8" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -10917,8 +10974,9 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -10930,34 +10988,38 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:AI2"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:AJ2"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="113" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L1048576">
       <formula1>"有,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"蓄电池2V检测设备,蓄电池串联复用设备,蓄电池串联复用诊断组件"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
